--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1981.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.244228093980495</v>
+        <v>0.7921580076217651</v>
       </c>
       <c r="B1">
-        <v>2.288130822815775</v>
+        <v>1.05002498626709</v>
       </c>
       <c r="C1">
-        <v>8.617191187414896</v>
+        <v>1.467407703399658</v>
       </c>
       <c r="D1">
-        <v>2.520697685421419</v>
+        <v>3.115997791290283</v>
       </c>
       <c r="E1">
-        <v>1.137201436746023</v>
+        <v>2.13815450668335</v>
       </c>
     </row>
   </sheetData>
